--- a/demo-mongodb/src/main/resources/excel_template/CONTACT_TEMPLATE.xlsx
+++ b/demo-mongodb/src/main/resources/excel_template/CONTACT_TEMPLATE.xlsx
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -80,22 +80,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,6 +118,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -118,18 +134,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,14 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,6 +187,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,20 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -202,29 +210,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,19 +239,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,78 +407,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,84 +414,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,15 +438,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +481,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -517,21 +517,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -545,151 +530,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -711,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1031,7 @@
   <dimension ref="A2:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1051,10 +1045,11 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="34.8" spans="4:5">
-      <c r="D2" s="2" t="s">
+    <row r="2" ht="34.8" spans="3:5">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="4" spans="1:6">
@@ -2145,6 +2140,9 @@
   <autoFilter ref="A2:H137">
     <extLst/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
